--- a/src/main/resources/excel/1 Pronunciacion.xlsx
+++ b/src/main/resources/excel/1 Pronunciacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1 Pronunciacion" sheetId="1" state="visible" r:id="rId3"/>
@@ -3169,8 +3169,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.85"/>
   </cols>
   <sheetData>
@@ -3522,14 +3522,14 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3738,10 +3738,14 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.97"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4091,11 +4095,16 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -4808,7 +4817,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
   </cols>
   <sheetData>
@@ -5523,7 +5532,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,8 +5878,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6227,8 +6236,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.7"/>
   </cols>
   <sheetData>
